--- a/biology/Botanique/Farfugium_japonicum/Farfugium_japonicum.xlsx
+++ b/biology/Botanique/Farfugium_japonicum/Farfugium_japonicum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -481,6 +491,8 @@
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -506,15 +518,17 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (21 janvier 2023)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (21 janvier 2023) :
 Farfugium japonicum var. formosanum (Hayata) Kitam.
 Farfugium japonicum var. japonicum
-Selon The Plant List            (21 janvier 2023)[1] :
+Selon The Plant List            (21 janvier 2023) :
 Farfugium japonicum var. giganteum Kitam.
 Farfugium japonicum var. luchuense (Masam.) Kitam.
-Selon Tropicos                                           (21 janvier 2023)[4] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (21 janvier 2023) (Attention liste brute contenant possiblement des synonymes) :
 Farfugium japonicum var. formosanum (Hayata) Kitam.
 Farfugium japonicum var. nokozanense (Yamam.) Kitam.</t>
         </is>
